--- a/Sprint-7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint-7/Sprint_7 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao9\Sprint-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -60,16 +60,7 @@
     <t>HISTÓRIA</t>
   </si>
   <si>
-    <t>Analisar e listar os requisitos do sistema com base nas features</t>
-  </si>
-  <si>
     <t>Feito</t>
-  </si>
-  <si>
-    <t>Documentar todos os requisitos do sistema</t>
-  </si>
-  <si>
-    <t>Análise e melhoramento de código</t>
   </si>
   <si>
     <t>SPRINT BURNDOWN DATA</t>
@@ -82,38 +73,6 @@
   </si>
   <si>
     <t>(hrs)</t>
-  </si>
-  <si>
-    <t>Terça
-13/09/2016</t>
-  </si>
-  <si>
-    <t>Quarta
-14/09/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-15/09/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-16/09/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-17/09/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-18/09/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-19/09/2016</t>
-  </si>
-  <si>
-    <t>Terça
-20/09/2016</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -140,25 +99,144 @@
     <t>PRODUTIVIDADE DIÁRIA</t>
   </si>
   <si>
-    <t>FULANO BURNDOWN DATA</t>
-  </si>
-  <si>
-    <t>FULANO DATA</t>
-  </si>
-  <si>
-    <t>Criação de Diagramas de caso de uso</t>
-  </si>
-  <si>
-    <t>BELTRANO BURNDOWN DATA</t>
-  </si>
-  <si>
-    <t>BELTRANO DATA</t>
-  </si>
-  <si>
     <t>Danilo</t>
   </si>
   <si>
     <t>Breno</t>
+  </si>
+  <si>
+    <t>É necessario ter um controle dos processos de adoção, então se deve criar uma tela de visualização do processo de adoção com o candidato e animal a ser adotado</t>
+  </si>
+  <si>
+    <t>Criar model Adocao</t>
+  </si>
+  <si>
+    <t>Criar view externa dos animais</t>
+  </si>
+  <si>
+    <t>Criar view do processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar controller para processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar model adoção</t>
+  </si>
+  <si>
+    <t>Criar controller do processo de adoção</t>
+  </si>
+  <si>
+    <t>Criar controller formulário adoção</t>
+  </si>
+  <si>
+    <t>Criar view de detalhes da adoção</t>
+  </si>
+  <si>
+    <t>Terça
+25/10/2016</t>
+  </si>
+  <si>
+    <t>Quarta
+26/10/2016</t>
+  </si>
+  <si>
+    <t>Quinta
+27/10/2016</t>
+  </si>
+  <si>
+    <t>Sexta
+28/10/2016</t>
+  </si>
+  <si>
+    <t>Sábado
+29/10/2016</t>
+  </si>
+  <si>
+    <t>Domingo
+30/10/2016</t>
+  </si>
+  <si>
+    <t>Segunda
+31/10/2016</t>
+  </si>
+  <si>
+    <t>Terça
+01/11/2016</t>
+  </si>
+  <si>
+    <t>Breno DATA</t>
+  </si>
+  <si>
+    <t>Breno BURNDOWN DATA</t>
+  </si>
+  <si>
+    <t>Danilo BURNDOWN DATA</t>
+  </si>
+  <si>
+    <t>Danilo DATA</t>
+  </si>
+  <si>
+    <t>Terça
+01/10/2016</t>
+  </si>
+  <si>
+    <t>Retirar Componentes não Funcionais</t>
+  </si>
+  <si>
+    <t>Modificação Listagem de Animais com  ListCellRenderer</t>
+  </si>
+  <si>
+    <t>Modificação Formulário de Cadastro de Candidato e Animal</t>
+  </si>
+  <si>
+    <t>Modificação Visualização de Adoções</t>
+  </si>
+  <si>
+    <t>Implementação de JFileChooser para Procura de Arquivo</t>
+  </si>
+  <si>
+    <t>Criar Método para Renomear o Arquivo</t>
+  </si>
+  <si>
+    <t>Criar Método para Copiar  Arquivo para o Sistema</t>
+  </si>
+  <si>
+    <t>Revisão de Telas e Correções de Bugs</t>
+  </si>
+  <si>
+    <t>Adicionar opção que possibilite a Inserção da Imgem do Animal que será adotado futuramente</t>
+  </si>
+  <si>
+    <t>Terça
+25/09/2016</t>
+  </si>
+  <si>
+    <t>Quarta
+26/09/2016</t>
+  </si>
+  <si>
+    <t>Quinta
+27/09/2016</t>
+  </si>
+  <si>
+    <t>Sexta
+28/09/2016</t>
+  </si>
+  <si>
+    <t>Sábado
+29/09/2016</t>
+  </si>
+  <si>
+    <t>Domingo
+30/09/2016</t>
+  </si>
+  <si>
+    <t>Segunda
+31/09/2016</t>
+  </si>
+  <si>
+    <t>Terça
+01/09/2016</t>
   </si>
 </sst>
 </file>
@@ -169,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,13 +291,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -249,8 +320,21 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor rgb="FF1C4587"/>
       </patternFill>
@@ -287,8 +365,50 @@
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -361,54 +481,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,19 +529,7 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,47 +542,144 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="176">
     <dxf>
       <fill>
         <patternFill>
@@ -552,6 +739,284 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -2832,35 +3297,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/09/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2872,28 +3337,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14.249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.5499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.8499999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2965,35 +3430,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/09/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/09/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3005,31 +3470,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.3000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.3000000000000043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,35 +3798,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3373,28 +3838,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3466,35 +3931,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3506,31 +3971,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,35 +4299,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3874,31 +4339,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.5000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.1000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.7763568394002505E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3967,35 +4432,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-13/09/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-14/09/2016</c:v>
+26/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-15/09/2016</c:v>
+27/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-16/09/2016</c:v>
+28/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-17/09/2016</c:v>
+29/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-18/09/2016</c:v>
+30/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-19/09/2016</c:v>
+31/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-20/09/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4007,31 +4472,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-8.8817841970012523E-16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-8.8817841970012523E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4311,15 +4776,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:colOff>167010</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200385</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4353,14 +4818,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>437400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4688,16 +5153,16 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AB1048573"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.7109375"/>
-    <col min="2" max="2" width="44.42578125"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125"/>
     <col min="4" max="4" width="13.28515625"/>
     <col min="5" max="5" width="10.85546875"/>
@@ -4708,528 +5173,656 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="31">
         <v>8</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
+      <c r="A4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="35">
+        <f>SUM(D4:D9)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="38">
+        <f>SUM(F4:F9)</f>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+    <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
+    <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+    <row r="8" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <f>SUM(D10:D13)</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.45</v>
+      </c>
+      <c r="G10" s="44">
+        <f>SUM(F10:F13)</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="27">
+        <v>4</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="27">
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="45">
+        <f>SUM(D14:D16)</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1.34</v>
+      </c>
+      <c r="G14" s="45">
+        <f>SUM(F14:F16)</f>
+        <v>7.0399999999999991</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="27">
+        <v>3</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
     </row>
+    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5243,28 +5836,11 @@
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="17">
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5272,14 +5848,21 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="175" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="notContainsText" dxfId="154" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="174" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5293,9 +5876,9 @@
   </sheetPr>
   <dimension ref="A1:S1048575"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5316,470 +5899,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="B3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="32">
+        <v>22.8</v>
+      </c>
+      <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="32">
+        <v>19.95</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="1"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="1"/>
+        <v>14.249999999999998</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="1"/>
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8499999999999992</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
+      <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
+        <v>79.8</v>
+      </c>
+      <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="32">
+        <v>22.8</v>
+      </c>
+      <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
+        <v>20.5</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
+        <v>17.8</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
+        <v>17.150000000000002</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
+        <v>16.700000000000003</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
+        <v>15.500000000000004</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
+        <v>9.8000000000000043</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
+        <v>9.3000000000000043</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
+        <v>9.3000000000000043</v>
+      </c>
+      <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
+        <v>116.05000000000004</v>
+      </c>
+      <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+        <v>14.506250000000005</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
         <f>B5/A3</f>
+        <v>2.85</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" ref="C9:K9" si="3">SUM(C10:C11)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="3"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C9" s="35">
-        <f>SUM(C10:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
-        <f>SUM(D10:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
-        <f>SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
-        <f>SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="35">
-        <f>SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="35">
-        <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <f>SUM(I10:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="35">
-        <f>SUM(J10:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
-        <f>SUM(K10:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+        <v>1.6875</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="37">
+      <c r="A10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
         <v>0</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
         <v>0</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
         <v>0</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
         <v>0</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="38">
+      <c r="A11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20">
         <f>'Breno Burndown'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="14">
         <f>'Breno Burndown'!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="14">
         <f>'Breno Burndown'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="14">
         <f>'Breno Burndown'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="14">
         <f>'Breno Burndown'!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="14">
         <f>'Breno Burndown'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="H11" s="14">
         <f>'Breno Burndown'!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="32">
+        <v>5.7</v>
+      </c>
+      <c r="I11" s="14">
         <f>'Breno Burndown'!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="14">
         <f>'Breno Burndown'!J9</f>
         <v>0</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5804,710 +6387,710 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C10 B10:B11">
-    <cfRule type="expression" dxfId="153" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="152" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="151" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="171" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="notContainsText" dxfId="150" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="170" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="149" priority="7">
+    <cfRule type="expression" dxfId="169" priority="7">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="147" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="146" priority="10">
+    <cfRule type="expression" dxfId="166" priority="10">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="144" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="164" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="143" priority="13">
+    <cfRule type="expression" dxfId="163" priority="13">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="141" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="161" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="140" priority="16">
+    <cfRule type="expression" dxfId="160" priority="16">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="139" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="138" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="137" priority="19">
+    <cfRule type="expression" dxfId="157" priority="19">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="136" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="135" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="155" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="134" priority="22">
+    <cfRule type="expression" dxfId="154" priority="22">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="152" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="131" priority="25">
+    <cfRule type="expression" dxfId="151" priority="25">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="27" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="128" priority="28">
+    <cfRule type="expression" dxfId="148" priority="28">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="125" priority="31">
+    <cfRule type="expression" dxfId="145" priority="31">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="123" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="122" priority="34">
+    <cfRule type="expression" dxfId="142" priority="34">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="121" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="120" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="119" priority="43">
+    <cfRule type="expression" dxfId="139" priority="43">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="118" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="117" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="45" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="116" priority="46">
+    <cfRule type="expression" dxfId="136" priority="46">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="115" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="114" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="113" priority="49">
+    <cfRule type="expression" dxfId="133" priority="49">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="112" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="111" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="110" priority="52">
+    <cfRule type="expression" dxfId="130" priority="52">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="109" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="128" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="107" priority="61">
+    <cfRule type="expression" dxfId="127" priority="61">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="106" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="105" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="104" priority="64">
+    <cfRule type="expression" dxfId="124" priority="64">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="103" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="102" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="66" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="101" priority="67">
+    <cfRule type="expression" dxfId="121" priority="67">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="99" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="69" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="98" priority="70">
+    <cfRule type="expression" dxfId="118" priority="70">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="97" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="96" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="72" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="95" priority="73">
+    <cfRule type="expression" dxfId="115" priority="73">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="93" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="75" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="92" priority="76">
+    <cfRule type="expression" dxfId="112" priority="76">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="78" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="89" priority="79">
+    <cfRule type="expression" dxfId="109" priority="79">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="81" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="106" priority="82">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="103" priority="85">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="87" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="100" priority="88">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="90" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="77" priority="91">
+    <cfRule type="expression" dxfId="97" priority="91">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="75" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="74" priority="94">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="71" priority="97">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="70" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="69" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="68" priority="100">
+    <cfRule type="expression" dxfId="88" priority="100">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="67" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="66" priority="102" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="102" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="65" priority="103">
+    <cfRule type="expression" dxfId="85" priority="103">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="64" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="63" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="105" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="62" priority="106">
+    <cfRule type="expression" dxfId="82" priority="106">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="61" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="60" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="108" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="59" priority="115">
+    <cfRule type="expression" dxfId="79" priority="115">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="58" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="57" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="117" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="56" priority="118">
+    <cfRule type="expression" dxfId="76" priority="118">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="55" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="54" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="120" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="53" priority="163">
+    <cfRule type="expression" dxfId="73" priority="163">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="52" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="51" priority="165" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="165" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="50" priority="166">
+    <cfRule type="expression" dxfId="70" priority="166">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="49" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="48" priority="168" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="168" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="47" priority="169">
+    <cfRule type="expression" dxfId="67" priority="169">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="46" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="45" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="171" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="44" priority="172">
+    <cfRule type="expression" dxfId="64" priority="172">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="43" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="42" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="174" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="41" priority="175">
+    <cfRule type="expression" dxfId="61" priority="175">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="40" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="39" priority="177" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="177" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="38" priority="178">
+    <cfRule type="expression" dxfId="58" priority="178">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="37" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="36" priority="180" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="180" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="35" priority="181">
+    <cfRule type="expression" dxfId="55" priority="181">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="34" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="33" priority="183" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="183" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="32" priority="184">
+    <cfRule type="expression" dxfId="52" priority="184">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="31" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="30" priority="186" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="186" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="29" priority="187">
+    <cfRule type="expression" dxfId="49" priority="187">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="28" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="27" priority="189" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="189" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="26" priority="190">
+    <cfRule type="expression" dxfId="46" priority="190">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="25" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="24" priority="192" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="192" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="23" priority="193">
+    <cfRule type="expression" dxfId="43" priority="193">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="22" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="21" priority="195" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="195" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="20" priority="196">
+    <cfRule type="expression" dxfId="40" priority="196">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="19" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="18" priority="198" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="198" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="17" priority="199">
+    <cfRule type="expression" dxfId="37" priority="199">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="15" priority="201" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="201" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="14" priority="202">
+    <cfRule type="expression" dxfId="34" priority="202">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="13" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="12" priority="204" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="204" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6522,16 +7105,16 @@
   <sheetPr>
     <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S1048574"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
     <col min="2" max="2" width="11"/>
     <col min="3" max="10" width="12.7109375"/>
     <col min="11" max="11" width="8.28515625"/>
@@ -6540,490 +7123,555 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="B3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="31">
-        <f>SUMIF('Sprint Backlog'!C:C,"=Fulano",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <f>SUMIF('Sprint Backlog'!C:C,"=Danilo",'Sprint Backlog'!D:D)</f>
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="32">
+        <v>12.25</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
+      <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
+        <v>49</v>
+      </c>
+      <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+        <v>6.125</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="32">
-        <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14">
+        <f>B6-C9</f>
+        <v>11.7</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:J6" si="2">C6-D9</f>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
+        <v>76.799999999999983</v>
+      </c>
+      <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="35">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C11)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="35">
+      <c r="F9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="35">
+      <c r="G9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="35">
+      <c r="H9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="35">
+      <c r="I9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="35">
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="35">
+      <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32">
-        <f>SUM(C10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
-        <f>K10/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+    <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1.45</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
+        <f>SUM(B10:J10)</f>
+        <v>1.45</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" ref="L10:L16" si="4">K10/A$3</f>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32">
-        <f>SUM(C11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="32">
-        <f>K11/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+    <row r="11" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
+        <f t="shared" ref="K11:K16" si="5">SUM(C11:J11)</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32">
-        <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="32">
-        <f>K12/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="4"/>
+        <v>0.21875</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="32">
-        <f>K13/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>1.34</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f t="shared" si="5"/>
+        <v>1.34</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="4"/>
+        <v>0.16750000000000001</v>
+      </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>2</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30">
+        <v>1.35</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1.05</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
+  <mergeCells count="17">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7037,38 +7685,89 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <conditionalFormatting sqref="C17:L94 C10:L11 N10:O11 C16:J16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>LEN(TRIM(A10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="7" priority="6" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O13">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>LEN(TRIM(N10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O13">
-    <cfRule type="notContainsText" dxfId="5" priority="8" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="C17:L94 C10:L11 C16:J16">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:L94 C10:L11 C16:J16">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B94">
+    <cfRule type="expression" dxfId="28" priority="19">
+      <formula>LEN(TRIM(A17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B94 N10:O11">
+    <cfRule type="notContainsText" dxfId="27" priority="20" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L15">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L15">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L15">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="expression" dxfId="23" priority="7">
+      <formula>LEN(TRIM(B10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>LEN(TRIM(B12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>LEN(TRIM(K16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7085,7 +7784,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7099,486 +7798,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="B3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="31">
-        <f>SUMIF('Sprint Backlog'!C:C,"=Beltrano",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <f>SUMIF('Sprint Backlog'!C:C,"=Breno",'Sprint Backlog'!D:D)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="32">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="32">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
+        <v>5.5000000000000018</v>
+      </c>
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
+        <v>4.4000000000000021</v>
+      </c>
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
+        <v>3.300000000000002</v>
+      </c>
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
+        <v>2.200000000000002</v>
+      </c>
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
+        <v>1.1000000000000019</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
+        <v>30.800000000000011</v>
+      </c>
+      <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+        <v>3.8500000000000014</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
+        <v>7.85</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
+        <v>0.49999999999999911</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
+        <v>39.25</v>
+      </c>
+      <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+        <v>4.90625</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="35">
+      <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32">
-        <f>SUM(C10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
-        <f>K10/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="A10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
+        <f t="shared" ref="K10:K15" si="4">SUM(C10:J10)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" ref="L10:L15" si="5">K10/A$3</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32">
-        <f>SUM(C11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="32">
-        <f>K11/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="A11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="5"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32">
-        <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="32">
-        <f>K12/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="A12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="32">
-        <f>K13/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="A13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="5"/>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="5"/>
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="21">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7593,29 +8359,80 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="C10:L13 C16:L96">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="C10:L13 C16:L96">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:L13 C16:L96">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B13 A16:B96">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="0" priority="6" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="A10:B13 A16:B96">
+    <cfRule type="notContainsText" dxfId="10" priority="16" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L14">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>LEN(TRIM(C14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L14">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L14">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>LEN(TRIM(A14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B14">
+    <cfRule type="notContainsText" dxfId="5" priority="10" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:L15">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>LEN(TRIM(C15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:L15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:L15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>LEN(TRIM(A15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="notContainsText" dxfId="0" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Sprint-7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint-7/Sprint_7 Burndown-Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Danilo e Breno-Sprint7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="979"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -597,6 +597,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,19 +639,7 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3473,28 +3473,28 @@
                   <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.5</c:v>
+                  <c:v>21.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.8</c:v>
+                  <c:v>16.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.150000000000002</c:v>
+                  <c:v>13.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.700000000000003</c:v>
+                  <c:v>11.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.500000000000004</c:v>
+                  <c:v>8.860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8000000000000043</c:v>
+                  <c:v>-0.13999999999999702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3000000000000043</c:v>
+                  <c:v>-1.9899999999999971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3000000000000043</c:v>
+                  <c:v>-3.0399999999999974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,28 +3974,28 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.7</c:v>
+                  <c:v>12.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>7.8500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>-0.63999999999999968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>-1.9899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2999999999999989</c:v>
+                  <c:v>-3.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,8 +5155,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048573"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5173,16 +5173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5207,27 +5207,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="35">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5251,9 +5251,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5266,8 +5266,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5289,7 +5289,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -5301,14 +5301,14 @@
       <c r="D4" s="5">
         <v>0.5</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="39">
         <f>SUM(D4:D9)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="F4" s="6">
         <v>0.3</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="42">
         <f>SUM(F4:F9)</f>
         <v>8.7999999999999989</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
@@ -5345,11 +5345,11 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="6">
         <v>0.65</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
@@ -5384,11 +5384,11 @@
       <c r="D6" s="5">
         <v>1.5</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="6">
         <v>1.2</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
@@ -5422,11 +5422,11 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="6">
         <v>5.7</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
@@ -5460,11 +5460,11 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="6">
         <v>0.45</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="23" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
@@ -5498,11 +5498,11 @@
       <c r="D9" s="5">
         <v>0.8</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="6">
         <v>0.5</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
@@ -5526,7 +5526,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -5538,14 +5538,14 @@
       <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <f>SUM(D10:D13)</f>
         <v>8</v>
       </c>
       <c r="F10" s="27">
         <v>1.45</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="45">
         <f>SUM(F10:F13)</f>
         <v>10</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="24" t="s">
         <v>48</v>
       </c>
@@ -5584,11 +5584,11 @@
       <c r="D11" s="27">
         <v>4</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="27">
         <v>4.7</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="24" t="s">
         <v>49</v>
       </c>
@@ -5624,11 +5624,11 @@
       <c r="D12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="27">
         <v>2.1</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="23" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
@@ -5664,11 +5664,11 @@
       <c r="D13" s="27">
         <v>2</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="27">
         <v>1.75</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="23" t="s">
         <v>10</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -5706,14 +5706,14 @@
       <c r="D14" s="27">
         <v>1</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="34">
         <f>SUM(D14:D16)</f>
         <v>6</v>
       </c>
       <c r="F14" s="27">
         <v>1.34</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="34">
         <f>SUM(F14:F16)</f>
         <v>7.0399999999999991</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
@@ -5752,11 +5752,11 @@
       <c r="D15" s="27">
         <v>2</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="27">
         <v>3.3</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="22" t="s">
         <v>10</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="24" t="s">
         <v>53</v>
       </c>
@@ -5792,11 +5792,11 @@
       <c r="D16" s="27">
         <v>3</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="27">
         <v>2.4</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="22" t="s">
         <v>10</v>
       </c>
@@ -5838,6 +5838,13 @@
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G10:G13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="G14:G16"/>
@@ -5848,13 +5855,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
     <cfRule type="expression" dxfId="175" priority="2">
@@ -5876,9 +5876,9 @@
   </sheetPr>
   <dimension ref="A1:S1048575"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6102,43 +6102,43 @@
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>20.5</v>
+        <v>21.35</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>17.8</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>17.150000000000002</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>16.700000000000003</v>
+        <v>11.400000000000002</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>15.500000000000004</v>
+        <v>8.860000000000003</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>9.8000000000000043</v>
+        <v>-0.13999999999999702</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>9.3000000000000043</v>
+        <v>-1.9899999999999971</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>9.3000000000000043</v>
+        <v>-3.0399999999999974</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>116.05000000000004</v>
+        <v>66.390000000000015</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>14.506250000000005</v>
+        <v>8.2987500000000018</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6206,43 +6206,43 @@
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C11)</f>
-        <v>2.2999999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>2.6999999999999997</v>
+        <v>5</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>2.75</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>2.54</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>25.84</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>1.6875</v>
+        <v>3.23</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6262,43 +6262,43 @@
       </c>
       <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>2.2999999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>4.6999999999999993</v>
+        <v>17.04</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>0.58749999999999991</v>
+        <v>2.13</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -7109,7 +7109,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7326,43 +7326,43 @@
       </c>
       <c r="C6" s="14">
         <f>B6-C9</f>
-        <v>11.7</v>
+        <v>12.55</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ref="D6:J6" si="2">C6-D9</f>
-        <v>9.2999999999999989</v>
+        <v>7.8500000000000005</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>5.75</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>2.66</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>-0.63999999999999968</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>-1.9899999999999998</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>-3.04</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>76.799999999999983</v>
+        <v>27.140000000000004</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>9.5999999999999979</v>
+        <v>3.3925000000000005</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7430,43 +7430,43 @@
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C11)</f>
-        <v>2.2999999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
+        <f>SUM(D10:D16)</f>
+        <v>4.7</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E10:E16)</f>
+        <v>2.1</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(F10:F16)</f>
+        <v>1.75</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(G10:G16)</f>
+        <v>1.34</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(H10:H16)</f>
+        <v>3.3</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(I10:I16)</f>
+        <v>1.35</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(J10:J16)</f>
+        <v>1.05</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" si="3"/>
-        <v>6.1499999999999995</v>
+        <f>SUM(K10:K16)</f>
+        <v>17.04</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0.76874999999999993</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7480,10 +7480,10 @@
       <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29">
         <v>1.45</v>
       </c>
-      <c r="C10" s="29"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -7512,11 +7512,9 @@
         <v>48</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="29">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="14">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -7526,11 +7524,11 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f t="shared" ref="K11:K16" si="5">SUM(C11:J11)</f>
-        <v>4.6999999999999993</v>
+        <v>4.7</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="4"/>
-        <v>0.58749999999999991</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="53"/>
@@ -7548,7 +7546,7 @@
       <c r="C12" s="29"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -7557,11 +7555,11 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="4"/>
-        <v>0.21875</v>
+        <v>0.26250000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -7573,7 +7571,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -7581,11 +7579,11 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14">
         <f t="shared" si="5"/>
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="4"/>
-        <v>0.16750000000000001</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -7598,18 +7596,18 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
         <f t="shared" si="5"/>
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="4"/>
-        <v>0.16250000000000001</v>
+        <v>0.16750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -7623,17 +7621,17 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.41249999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -7668,6 +7666,7 @@
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
@@ -7684,7 +7683,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:L94 C10:L11 N10:O11 C16:J16">
     <cfRule type="expression" dxfId="31" priority="16">
@@ -8343,6 +8341,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
@@ -8359,11 +8362,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L13 C16:L96">
     <cfRule type="expression" dxfId="14" priority="12">
